--- a/biology/Microbiologie/Entorhipidium/Entorhipidium.xlsx
+++ b/biology/Microbiologie/Entorhipidium/Entorhipidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entorhipidiidae
 Entorhipidium, unique représentant de la famille des Entorhipidiidae, est un genre de Ciliés de l’ordre des Scuticociliatida (classe des Oligohymenophorea).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Entorhipidium, composé du préfixe ento-, « au dedans », et du suffixe rhipid (du grec ριπιδ / ripid, « éventail », littéralement « éventail interne », probablement en référence à la forme de ces ciliés et le fait qu'ils vivent à l'intérieur d'oursins.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Entorhipidium ont une taille moyenne (80 à 200 µm) à grande (&gt; 200 µm). Leur forme est aplatie latéralement, avec la présence d'une suture proéminente sur la large extrémité antérieure, et l'extrémité postérieure effilée vers la queue. Leur ciliation somatique est holotriche (c. à d. homogène), dense, avec un seul cil caudal. Leur région buccale est une cavité antérieure de petite taille, peu visible, surplombée par le lobe frontal du corps, contenant un court paroral et trois petits polycinétides oraux. Leur macronoyau est une ellipsoïde parfois allongée. Leur micronoyau peut être multiple. Vacuole contractile et cytoprocte sont présents. Ils sont bactérivores et détritivores[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Entorhipidium ont une taille moyenne (80 à 200 µm) à grande (&gt; 200 µm). Leur forme est aplatie latéralement, avec la présence d'une suture proéminente sur la large extrémité antérieure, et l'extrémité postérieure effilée vers la queue. Leur ciliation somatique est holotriche (c. à d. homogène), dense, avec un seul cil caudal. Leur région buccale est une cavité antérieure de petite taille, peu visible, surplombée par le lobe frontal du corps, contenant un court paroral et trois petits polycinétides oraux. Leur macronoyau est une ellipsoïde parfois allongée. Leur micronoyau peut être multiple. Vacuole contractile et cytoprocte sont présents. Ils sont bactérivores et détritivores.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Entorhipidium vivent dans des habitats marins sous forme d'endocommensaux dans les intestins des oursins[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Entorhipidium vivent dans des habitats marins sous forme d'endocommensaux dans les intestins des oursins.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (24 mai 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (24 mai 2024) :
 Entorhipidium echini Lynch, 1929 espèce type
 Entorhipidium fukuii Uyemura, 1934
 Entorhipidium multimicronucleatum Lynch, 1929
@@ -641,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Entorhipidium Lynch (d), 1929[2],[3]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Entorhipidium Lynch (d), 1929,. 
 </t>
         </is>
       </c>
@@ -672,7 +694,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) James Eric Lynch, « Studies on the ciliates from the intestine of Strongylocentrotus. I. Entorhipidium gen. nov. », University of California Publications in Zoology, États-Unis, vol. 33,‎ 1929, p. 27-56 (ISSN 0068-6506, e-ISSN 1559-3215).</t>
         </is>
